--- a/Project Planning/Activity-Template_-Gantt-chart.xlsx
+++ b/Project Planning/Activity-Template_-Gantt-chart.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\veneskey\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dennis\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6585"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt Chart" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="77">
   <si>
     <t>Gantt Chart</t>
   </si>
@@ -30,6 +30,7 @@
         <sz val="10"/>
         <color rgb="FF34A853"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">TITLE: </t>
     </r>
@@ -39,6 +40,7 @@
         <sz val="11"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Plant Pals Operations and Training Plan</t>
     </r>
@@ -50,13 +52,160 @@
     <t>Office Green</t>
   </si>
   <si>
+    <t>CREATION DATE:</t>
+  </si>
+  <si>
+    <t>02/15</t>
+  </si>
+  <si>
+    <t>TASK ID NUMBER</t>
+  </si>
+  <si>
+    <t>MILESTONES &amp; TASKS</t>
+  </si>
+  <si>
+    <t>TASK OWNER</t>
+  </si>
+  <si>
+    <t>START DATE</t>
+  </si>
+  <si>
+    <t>DUE DATE</t>
+  </si>
+  <si>
+    <t>DURATION</t>
+  </si>
+  <si>
+    <t>PCT OF TASK COMPLETE</t>
+  </si>
+  <si>
+    <t>PHASE ONE</t>
+  </si>
+  <si>
+    <t>PHASE TWO</t>
+  </si>
+  <si>
+    <t>PHASE THREE</t>
+  </si>
+  <si>
+    <t>WEEK 1</t>
+  </si>
+  <si>
+    <t>WEEK 2</t>
+  </si>
+  <si>
+    <t>WEEK 3</t>
+  </si>
+  <si>
+    <t>WEEK 4</t>
+  </si>
+  <si>
+    <t>WEEK 5</t>
+  </si>
+  <si>
+    <t>WEEK 6</t>
+  </si>
+  <si>
+    <t>WEEK 7</t>
+  </si>
+  <si>
+    <t>WEEK 8</t>
+  </si>
+  <si>
+    <t>WEEK 9</t>
+  </si>
+  <si>
+    <t>WEEK 10</t>
+  </si>
+  <si>
+    <t>WEEK 11</t>
+  </si>
+  <si>
+    <t>WEEK 12</t>
+  </si>
+  <si>
+    <t>WEEK 13</t>
+  </si>
+  <si>
+    <t>WEEK 14</t>
+  </si>
+  <si>
+    <t>WEEK 15</t>
+  </si>
+  <si>
+    <t>MARCH</t>
+  </si>
+  <si>
+    <t>APRIL</t>
+  </si>
+  <si>
+    <t>MAY</t>
+  </si>
+  <si>
+    <t>JUNE</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Source packaging materials</t>
+  </si>
+  <si>
+    <t>Fulfillment Director</t>
+  </si>
+  <si>
+    <t>3/15</t>
+  </si>
+  <si>
+    <t>3/26</t>
+  </si>
+  <si>
+    <t>Supervise vendor setup of inventory management and fulfillment software</t>
+  </si>
+  <si>
+    <t>Inventory Manager</t>
+  </si>
+  <si>
+    <t>4/12</t>
+  </si>
+  <si>
+    <t>4/14</t>
+  </si>
+  <si>
+    <t>4/19</t>
+  </si>
+  <si>
+    <t>4/30</t>
+  </si>
+  <si>
+    <t>Develop and launch an employee training program</t>
+  </si>
+  <si>
+    <t>5/3</t>
+  </si>
+  <si>
+    <t>Train employees to use the software and equipment</t>
+  </si>
+  <si>
+    <t>5/28</t>
+  </si>
+  <si>
+    <t>Training Manager</t>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF34A853"/>
-        <rFont val="Arial"/>
-      </rPr>
       <t>PROJECT MANAGER:</t>
     </r>
     <r>
@@ -65,171 +214,73 @@
         <sz val="10"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t xml:space="preserve"> Peta</t>
     </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>[Name]</t>
-    </r>
-  </si>
-  <si>
-    <t>CREATION DATE:</t>
-  </si>
-  <si>
-    <t>02/15</t>
-  </si>
-  <si>
-    <t>TASK ID NUMBER</t>
-  </si>
-  <si>
-    <t>MILESTONES &amp; TASKS</t>
-  </si>
-  <si>
-    <t>TASK OWNER</t>
-  </si>
-  <si>
-    <t>START DATE</t>
-  </si>
-  <si>
-    <t>DUE DATE</t>
-  </si>
-  <si>
-    <t>DURATION</t>
-  </si>
-  <si>
-    <t>PCT OF TASK COMPLETE</t>
-  </si>
-  <si>
-    <t>PHASE ONE</t>
-  </si>
-  <si>
-    <t>PHASE TWO</t>
-  </si>
-  <si>
-    <t>PHASE THREE</t>
-  </si>
-  <si>
-    <t>WEEK 1</t>
-  </si>
-  <si>
-    <t>WEEK 2</t>
-  </si>
-  <si>
-    <t>WEEK 3</t>
-  </si>
-  <si>
-    <t>WEEK 4</t>
-  </si>
-  <si>
-    <t>WEEK 5</t>
-  </si>
-  <si>
-    <t>WEEK 6</t>
-  </si>
-  <si>
-    <t>WEEK 7</t>
-  </si>
-  <si>
-    <t>WEEK 8</t>
-  </si>
-  <si>
-    <t>WEEK 9</t>
-  </si>
-  <si>
-    <t>WEEK 10</t>
-  </si>
-  <si>
-    <t>WEEK 11</t>
-  </si>
-  <si>
-    <t>WEEK 12</t>
-  </si>
-  <si>
-    <t>WEEK 13</t>
-  </si>
-  <si>
-    <t>WEEK 14</t>
-  </si>
-  <si>
-    <t>WEEK 15</t>
-  </si>
-  <si>
-    <t>MARCH</t>
-  </si>
-  <si>
-    <t>APRIL</t>
-  </si>
-  <si>
-    <t>MAY</t>
-  </si>
-  <si>
-    <t>JUNE</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>Source packaging materials</t>
-  </si>
-  <si>
-    <t>Fulfillment Director</t>
-  </si>
-  <si>
-    <t>3/15</t>
-  </si>
-  <si>
-    <t>3/26</t>
-  </si>
-  <si>
-    <t>Supervise vendor setup of inventory management and fulfillment software</t>
-  </si>
-  <si>
-    <t>Inventory Manager</t>
-  </si>
-  <si>
-    <t>4/12</t>
-  </si>
-  <si>
-    <t>4/14</t>
-  </si>
-  <si>
-    <t>4/19</t>
-  </si>
-  <si>
-    <t>4/30</t>
-  </si>
-  <si>
-    <t>Develop and launch an employee training program</t>
-  </si>
-  <si>
-    <t>5/3</t>
-  </si>
-  <si>
-    <t>Train employees to use the software and equipment</t>
-  </si>
-  <si>
-    <t>5/28</t>
-  </si>
-  <si>
-    <t>Training Manager</t>
+  </si>
+  <si>
+    <t>Establish a plant delivery and logistics plan</t>
+  </si>
+  <si>
+    <t>Select and install supply chain software and equipment</t>
+  </si>
+  <si>
+    <t>Hire delivery drivers</t>
+  </si>
+  <si>
+    <t>Calculate the delivery fees</t>
+  </si>
+  <si>
+    <t>Supervise vendor installation of the fulfillment equipment</t>
+  </si>
+  <si>
+    <t>Determine internal safety protocols for the equipment</t>
+  </si>
+  <si>
+    <t>3/01</t>
+  </si>
+  <si>
+    <t>3/12</t>
+  </si>
+  <si>
+    <t>3/29</t>
+  </si>
+  <si>
+    <t>4/9</t>
+  </si>
+  <si>
+    <t>Develop training sessions</t>
+  </si>
+  <si>
+    <t>Monitor employee progress and improve training processes</t>
+  </si>
+  <si>
+    <t>4/15</t>
+  </si>
+  <si>
+    <t>4/16</t>
+  </si>
+  <si>
+    <t>Human Resources Specialist</t>
+  </si>
+  <si>
+    <t>Financial Analyst</t>
+  </si>
+  <si>
+    <t>5/14</t>
+  </si>
+  <si>
+    <t>5/17</t>
+  </si>
+  <si>
+    <t>5/31</t>
+  </si>
+  <si>
+    <t>6/11</t>
+  </si>
+  <si>
+    <t>Quality Assurance Tester</t>
   </si>
 </sst>
 </file>
@@ -239,7 +290,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -249,163 +300,186 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="30"/>
       <color rgb="FF0B5394"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF0B5394"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="30"/>
       <color rgb="FF34A853"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="29"/>
       <color rgb="FF34A853"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="30"/>
       <color rgb="FF38761D"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF34A853"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF999999"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF666666"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="8"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color rgb="FF073763"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color rgb="FF666666"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF073763"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF434343"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF434343"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF434343"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF434343"/>
-      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF666666"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF666666"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -470,6 +544,24 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF73C79E"/>
         <bgColor rgb="FF73C79E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF78A9F8"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -580,7 +672,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -703,33 +795,20 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="24" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -738,6 +817,7 @@
     <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -745,18 +825,39 @@
     <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF78A9F8"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1005,21 +1106,23 @@
   </sheetPr>
   <dimension ref="A1:CE973"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="BV28" sqref="BV28:CE28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.86328125" customWidth="1"/>
-    <col min="2" max="2" width="12.73046875" customWidth="1"/>
-    <col min="3" max="3" width="67.86328125" customWidth="1"/>
-    <col min="4" max="4" width="27.86328125" customWidth="1"/>
+    <col min="1" max="1" width="4.88671875" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" customWidth="1"/>
+    <col min="3" max="3" width="67.88671875" customWidth="1"/>
+    <col min="4" max="4" width="27.88671875" customWidth="1"/>
     <col min="5" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="9.86328125" customWidth="1"/>
-    <col min="9" max="38" width="3.3984375" customWidth="1"/>
-    <col min="39" max="83" width="3.86328125" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" customWidth="1"/>
+    <col min="9" max="38" width="3.44140625" customWidth="1"/>
+    <col min="39" max="83" width="3.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:83" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:83" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -1047,7 +1150,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:83" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:83" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
@@ -1075,7 +1178,7 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3" spans="1:83" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:83" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
@@ -1103,7 +1206,7 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
     </row>
-    <row r="4" spans="1:83" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:83" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3"/>
@@ -1131,7 +1234,7 @@
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
     </row>
-    <row r="5" spans="1:83" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:83" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3"/>
@@ -1159,7 +1262,7 @@
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
     </row>
-    <row r="6" spans="1:83" ht="1.5" customHeight="1" x14ac:dyDescent="1">
+    <row r="6" spans="1:83" ht="1.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A6" s="1"/>
       <c r="B6" s="9"/>
       <c r="C6" s="3"/>
@@ -1187,32 +1290,32 @@
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
     </row>
-    <row r="7" spans="1:83" ht="37.9" x14ac:dyDescent="1">
+    <row r="7" spans="1:83" ht="37.799999999999997" x14ac:dyDescent="0.65">
       <c r="A7" s="11"/>
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="64"/>
-      <c r="K7" s="64"/>
-      <c r="L7" s="64"/>
-      <c r="M7" s="64"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="62"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
       <c r="P7" s="12"/>
       <c r="Q7" s="12"/>
       <c r="R7" s="12"/>
-      <c r="S7" s="66"/>
-      <c r="T7" s="64"/>
-      <c r="U7" s="64"/>
-      <c r="V7" s="64"/>
-      <c r="W7" s="64"/>
+      <c r="S7" s="75"/>
+      <c r="T7" s="62"/>
+      <c r="U7" s="62"/>
+      <c r="V7" s="62"/>
+      <c r="W7" s="62"/>
       <c r="X7" s="11"/>
       <c r="Y7" s="11"/>
       <c r="Z7" s="11"/>
@@ -1274,7 +1377,7 @@
       <c r="CD7" s="11"/>
       <c r="CE7" s="11"/>
     </row>
-    <row r="8" spans="1:83" ht="21" customHeight="1" x14ac:dyDescent="1">
+    <row r="8" spans="1:83" ht="21" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A8" s="13"/>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
@@ -1358,36 +1461,36 @@
       <c r="CD8" s="13"/>
       <c r="CE8" s="13"/>
     </row>
-    <row r="9" spans="1:83" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:83" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="67" t="s">
+      <c r="B9" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="64"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
       <c r="H9" s="16"/>
-      <c r="I9" s="67" t="s">
+      <c r="I9" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="J9" s="64"/>
-      <c r="K9" s="64"/>
-      <c r="L9" s="64"/>
-      <c r="M9" s="64"/>
-      <c r="N9" s="69" t="s">
+      <c r="J9" s="62"/>
+      <c r="K9" s="62"/>
+      <c r="L9" s="62"/>
+      <c r="M9" s="62"/>
+      <c r="N9" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="O9" s="64"/>
-      <c r="P9" s="64"/>
-      <c r="Q9" s="64"/>
-      <c r="R9" s="64"/>
-      <c r="S9" s="64"/>
-      <c r="T9" s="64"/>
-      <c r="U9" s="64"/>
-      <c r="V9" s="64"/>
-      <c r="W9" s="64"/>
+      <c r="O9" s="62"/>
+      <c r="P9" s="62"/>
+      <c r="Q9" s="62"/>
+      <c r="R9" s="62"/>
+      <c r="S9" s="62"/>
+      <c r="T9" s="62"/>
+      <c r="U9" s="62"/>
+      <c r="V9" s="62"/>
+      <c r="W9" s="62"/>
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
@@ -1449,36 +1552,36 @@
       <c r="CD9" s="1"/>
       <c r="CE9" s="1"/>
     </row>
-    <row r="10" spans="1:83" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:83" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="67" t="s">
+      <c r="B10" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="62"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="64"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="67" t="s">
+      <c r="J10" s="62"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="62"/>
+      <c r="N10" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="J10" s="64"/>
-      <c r="K10" s="64"/>
-      <c r="L10" s="64"/>
-      <c r="M10" s="64"/>
-      <c r="N10" s="76" t="s">
-        <v>6</v>
-      </c>
-      <c r="O10" s="64"/>
-      <c r="P10" s="64"/>
-      <c r="Q10" s="64"/>
-      <c r="R10" s="64"/>
-      <c r="S10" s="64"/>
-      <c r="T10" s="64"/>
-      <c r="U10" s="64"/>
-      <c r="V10" s="64"/>
-      <c r="W10" s="64"/>
+      <c r="O10" s="62"/>
+      <c r="P10" s="62"/>
+      <c r="Q10" s="62"/>
+      <c r="R10" s="62"/>
+      <c r="S10" s="62"/>
+      <c r="T10" s="62"/>
+      <c r="U10" s="62"/>
+      <c r="V10" s="62"/>
+      <c r="W10" s="62"/>
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
@@ -1540,7 +1643,7 @@
       <c r="CD10" s="1"/>
       <c r="CE10" s="1"/>
     </row>
-    <row r="11" spans="1:83" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:83" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -1625,7 +1728,7 @@
       <c r="CD11" s="1"/>
       <c r="CE11" s="1"/>
     </row>
-    <row r="12" spans="1:83" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:83" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -1710,237 +1813,237 @@
       <c r="CD12" s="1"/>
       <c r="CE12" s="1"/>
     </row>
-    <row r="13" spans="1:83" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:83" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="18"/>
-      <c r="B13" s="77" t="s">
+      <c r="B13" s="69" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="70" t="s">
+      <c r="D13" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="70" t="s">
+      <c r="E13" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="70" t="s">
+      <c r="F13" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="70" t="s">
+      <c r="G13" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="70" t="s">
+      <c r="H13" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="70" t="s">
+      <c r="I13" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="I13" s="72" t="s">
+      <c r="J13" s="62"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="62"/>
+      <c r="M13" s="62"/>
+      <c r="N13" s="62"/>
+      <c r="O13" s="62"/>
+      <c r="P13" s="62"/>
+      <c r="Q13" s="62"/>
+      <c r="R13" s="62"/>
+      <c r="S13" s="62"/>
+      <c r="T13" s="62"/>
+      <c r="U13" s="62"/>
+      <c r="V13" s="62"/>
+      <c r="W13" s="62"/>
+      <c r="X13" s="62"/>
+      <c r="Y13" s="62"/>
+      <c r="Z13" s="62"/>
+      <c r="AA13" s="62"/>
+      <c r="AB13" s="62"/>
+      <c r="AC13" s="62"/>
+      <c r="AD13" s="62"/>
+      <c r="AE13" s="62"/>
+      <c r="AF13" s="62"/>
+      <c r="AG13" s="62"/>
+      <c r="AH13" s="62"/>
+      <c r="AI13" s="62"/>
+      <c r="AJ13" s="62"/>
+      <c r="AK13" s="62"/>
+      <c r="AL13" s="62"/>
+      <c r="AM13" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="J13" s="64"/>
-      <c r="K13" s="64"/>
-      <c r="L13" s="64"/>
-      <c r="M13" s="64"/>
-      <c r="N13" s="64"/>
-      <c r="O13" s="64"/>
-      <c r="P13" s="64"/>
-      <c r="Q13" s="64"/>
-      <c r="R13" s="64"/>
-      <c r="S13" s="64"/>
-      <c r="T13" s="64"/>
-      <c r="U13" s="64"/>
-      <c r="V13" s="64"/>
-      <c r="W13" s="64"/>
-      <c r="X13" s="64"/>
-      <c r="Y13" s="64"/>
-      <c r="Z13" s="64"/>
-      <c r="AA13" s="64"/>
-      <c r="AB13" s="64"/>
-      <c r="AC13" s="64"/>
-      <c r="AD13" s="64"/>
-      <c r="AE13" s="64"/>
-      <c r="AF13" s="64"/>
-      <c r="AG13" s="64"/>
-      <c r="AH13" s="64"/>
-      <c r="AI13" s="64"/>
-      <c r="AJ13" s="64"/>
-      <c r="AK13" s="64"/>
-      <c r="AL13" s="64"/>
-      <c r="AM13" s="73" t="s">
+      <c r="AN13" s="62"/>
+      <c r="AO13" s="62"/>
+      <c r="AP13" s="62"/>
+      <c r="AQ13" s="62"/>
+      <c r="AR13" s="62"/>
+      <c r="AS13" s="62"/>
+      <c r="AT13" s="62"/>
+      <c r="AU13" s="62"/>
+      <c r="AV13" s="62"/>
+      <c r="AW13" s="62"/>
+      <c r="AX13" s="62"/>
+      <c r="AY13" s="62"/>
+      <c r="AZ13" s="62"/>
+      <c r="BA13" s="62"/>
+      <c r="BB13" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="AN13" s="64"/>
-      <c r="AO13" s="64"/>
-      <c r="AP13" s="64"/>
-      <c r="AQ13" s="64"/>
-      <c r="AR13" s="64"/>
-      <c r="AS13" s="64"/>
-      <c r="AT13" s="64"/>
-      <c r="AU13" s="64"/>
-      <c r="AV13" s="64"/>
-      <c r="AW13" s="64"/>
-      <c r="AX13" s="64"/>
-      <c r="AY13" s="64"/>
-      <c r="AZ13" s="64"/>
-      <c r="BA13" s="64"/>
-      <c r="BB13" s="74" t="s">
+      <c r="BC13" s="62"/>
+      <c r="BD13" s="62"/>
+      <c r="BE13" s="62"/>
+      <c r="BF13" s="62"/>
+      <c r="BG13" s="62"/>
+      <c r="BH13" s="62"/>
+      <c r="BI13" s="62"/>
+      <c r="BJ13" s="62"/>
+      <c r="BK13" s="62"/>
+      <c r="BL13" s="62"/>
+      <c r="BM13" s="62"/>
+      <c r="BN13" s="62"/>
+      <c r="BO13" s="62"/>
+      <c r="BP13" s="62"/>
+      <c r="BQ13" s="62"/>
+      <c r="BR13" s="62"/>
+      <c r="BS13" s="62"/>
+      <c r="BT13" s="62"/>
+      <c r="BU13" s="62"/>
+      <c r="BV13" s="62"/>
+      <c r="BW13" s="62"/>
+      <c r="BX13" s="62"/>
+      <c r="BY13" s="62"/>
+      <c r="BZ13" s="62"/>
+      <c r="CA13" s="62"/>
+      <c r="CB13" s="62"/>
+      <c r="CC13" s="62"/>
+      <c r="CD13" s="62"/>
+      <c r="CE13" s="62"/>
+    </row>
+    <row r="14" spans="1:83" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="19"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="BC13" s="64"/>
-      <c r="BD13" s="64"/>
-      <c r="BE13" s="64"/>
-      <c r="BF13" s="64"/>
-      <c r="BG13" s="64"/>
-      <c r="BH13" s="64"/>
-      <c r="BI13" s="64"/>
-      <c r="BJ13" s="64"/>
-      <c r="BK13" s="64"/>
-      <c r="BL13" s="64"/>
-      <c r="BM13" s="64"/>
-      <c r="BN13" s="64"/>
-      <c r="BO13" s="64"/>
-      <c r="BP13" s="64"/>
-      <c r="BQ13" s="64"/>
-      <c r="BR13" s="64"/>
-      <c r="BS13" s="64"/>
-      <c r="BT13" s="64"/>
-      <c r="BU13" s="64"/>
-      <c r="BV13" s="64"/>
-      <c r="BW13" s="64"/>
-      <c r="BX13" s="64"/>
-      <c r="BY13" s="64"/>
-      <c r="BZ13" s="64"/>
-      <c r="CA13" s="64"/>
-      <c r="CB13" s="64"/>
-      <c r="CC13" s="64"/>
-      <c r="CD13" s="64"/>
-      <c r="CE13" s="64"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="62"/>
+      <c r="N14" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="O14" s="62"/>
+      <c r="P14" s="62"/>
+      <c r="Q14" s="62"/>
+      <c r="R14" s="62"/>
+      <c r="S14" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="T14" s="62"/>
+      <c r="U14" s="62"/>
+      <c r="V14" s="62"/>
+      <c r="W14" s="62"/>
+      <c r="X14" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y14" s="62"/>
+      <c r="Z14" s="62"/>
+      <c r="AA14" s="62"/>
+      <c r="AB14" s="62"/>
+      <c r="AC14" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD14" s="62"/>
+      <c r="AE14" s="62"/>
+      <c r="AF14" s="62"/>
+      <c r="AG14" s="62"/>
+      <c r="AH14" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI14" s="62"/>
+      <c r="AJ14" s="62"/>
+      <c r="AK14" s="62"/>
+      <c r="AL14" s="62"/>
+      <c r="AM14" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="AN14" s="62"/>
+      <c r="AO14" s="62"/>
+      <c r="AP14" s="62"/>
+      <c r="AQ14" s="62"/>
+      <c r="AR14" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="AS14" s="62"/>
+      <c r="AT14" s="62"/>
+      <c r="AU14" s="62"/>
+      <c r="AV14" s="62"/>
+      <c r="AW14" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="AX14" s="62"/>
+      <c r="AY14" s="62"/>
+      <c r="AZ14" s="62"/>
+      <c r="BA14" s="62"/>
+      <c r="BB14" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="BC14" s="62"/>
+      <c r="BD14" s="62"/>
+      <c r="BE14" s="62"/>
+      <c r="BF14" s="62"/>
+      <c r="BG14" s="61" t="s">
+        <v>26</v>
+      </c>
+      <c r="BH14" s="62"/>
+      <c r="BI14" s="62"/>
+      <c r="BJ14" s="62"/>
+      <c r="BK14" s="62"/>
+      <c r="BL14" s="63" t="s">
+        <v>27</v>
+      </c>
+      <c r="BM14" s="62"/>
+      <c r="BN14" s="62"/>
+      <c r="BO14" s="62"/>
+      <c r="BP14" s="62"/>
+      <c r="BQ14" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="BR14" s="62"/>
+      <c r="BS14" s="62"/>
+      <c r="BT14" s="62"/>
+      <c r="BU14" s="62"/>
+      <c r="BV14" s="63" t="s">
+        <v>29</v>
+      </c>
+      <c r="BW14" s="62"/>
+      <c r="BX14" s="62"/>
+      <c r="BY14" s="62"/>
+      <c r="BZ14" s="62"/>
+      <c r="CA14" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="CB14" s="62"/>
+      <c r="CC14" s="62"/>
+      <c r="CD14" s="62"/>
+      <c r="CE14" s="62"/>
     </row>
-    <row r="14" spans="1:83" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="19"/>
-      <c r="B14" s="71"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="78" t="s">
-        <v>17</v>
-      </c>
-      <c r="J14" s="64"/>
-      <c r="K14" s="64"/>
-      <c r="L14" s="64"/>
-      <c r="M14" s="64"/>
-      <c r="N14" s="79" t="s">
-        <v>18</v>
-      </c>
-      <c r="O14" s="64"/>
-      <c r="P14" s="64"/>
-      <c r="Q14" s="64"/>
-      <c r="R14" s="64"/>
-      <c r="S14" s="78" t="s">
-        <v>19</v>
-      </c>
-      <c r="T14" s="64"/>
-      <c r="U14" s="64"/>
-      <c r="V14" s="64"/>
-      <c r="W14" s="64"/>
-      <c r="X14" s="79" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y14" s="64"/>
-      <c r="Z14" s="64"/>
-      <c r="AA14" s="64"/>
-      <c r="AB14" s="64"/>
-      <c r="AC14" s="78" t="s">
-        <v>21</v>
-      </c>
-      <c r="AD14" s="64"/>
-      <c r="AE14" s="64"/>
-      <c r="AF14" s="64"/>
-      <c r="AG14" s="64"/>
-      <c r="AH14" s="79" t="s">
-        <v>22</v>
-      </c>
-      <c r="AI14" s="64"/>
-      <c r="AJ14" s="64"/>
-      <c r="AK14" s="64"/>
-      <c r="AL14" s="64"/>
-      <c r="AM14" s="78" t="s">
-        <v>23</v>
-      </c>
-      <c r="AN14" s="64"/>
-      <c r="AO14" s="64"/>
-      <c r="AP14" s="64"/>
-      <c r="AQ14" s="64"/>
-      <c r="AR14" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="AS14" s="64"/>
-      <c r="AT14" s="64"/>
-      <c r="AU14" s="64"/>
-      <c r="AV14" s="64"/>
-      <c r="AW14" s="78" t="s">
-        <v>25</v>
-      </c>
-      <c r="AX14" s="64"/>
-      <c r="AY14" s="64"/>
-      <c r="AZ14" s="64"/>
-      <c r="BA14" s="64"/>
-      <c r="BB14" s="79" t="s">
-        <v>26</v>
-      </c>
-      <c r="BC14" s="64"/>
-      <c r="BD14" s="64"/>
-      <c r="BE14" s="64"/>
-      <c r="BF14" s="64"/>
-      <c r="BG14" s="78" t="s">
-        <v>27</v>
-      </c>
-      <c r="BH14" s="64"/>
-      <c r="BI14" s="64"/>
-      <c r="BJ14" s="64"/>
-      <c r="BK14" s="64"/>
-      <c r="BL14" s="79" t="s">
-        <v>28</v>
-      </c>
-      <c r="BM14" s="64"/>
-      <c r="BN14" s="64"/>
-      <c r="BO14" s="64"/>
-      <c r="BP14" s="64"/>
-      <c r="BQ14" s="78" t="s">
-        <v>29</v>
-      </c>
-      <c r="BR14" s="64"/>
-      <c r="BS14" s="64"/>
-      <c r="BT14" s="64"/>
-      <c r="BU14" s="64"/>
-      <c r="BV14" s="79" t="s">
-        <v>30</v>
-      </c>
-      <c r="BW14" s="64"/>
-      <c r="BX14" s="64"/>
-      <c r="BY14" s="64"/>
-      <c r="BZ14" s="64"/>
-      <c r="CA14" s="78" t="s">
+    <row r="15" spans="1:83" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="19"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="20" t="s">
         <v>31</v>
-      </c>
-      <c r="CB14" s="64"/>
-      <c r="CC14" s="64"/>
-      <c r="CD14" s="64"/>
-      <c r="CE14" s="64"/>
-    </row>
-    <row r="15" spans="1:83" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="19"/>
-      <c r="B15" s="71"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="71"/>
-      <c r="I15" s="20" t="s">
-        <v>32</v>
       </c>
       <c r="J15" s="21"/>
       <c r="K15" s="21"/>
@@ -1965,7 +2068,7 @@
       <c r="AD15" s="21"/>
       <c r="AE15" s="22"/>
       <c r="AF15" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AG15" s="21"/>
       <c r="AH15" s="21"/>
@@ -1989,7 +2092,7 @@
       <c r="AZ15" s="21"/>
       <c r="BA15" s="22"/>
       <c r="BB15" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="BC15" s="21"/>
       <c r="BD15" s="21"/>
@@ -2012,7 +2115,7 @@
       <c r="BU15" s="21"/>
       <c r="BV15" s="22"/>
       <c r="BW15" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="BX15" s="21"/>
       <c r="BY15" s="21"/>
@@ -2023,247 +2126,249 @@
       <c r="CD15" s="21"/>
       <c r="CE15" s="21"/>
     </row>
-    <row r="16" spans="1:83" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:83" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
-      <c r="B16" s="71"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="71"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="70"/>
       <c r="I16" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="J16" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="J16" s="23" t="s">
+      <c r="K16" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="K16" s="23" t="s">
+      <c r="L16" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="L16" s="23" t="s">
+      <c r="M16" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="M16" s="23" t="s">
-        <v>40</v>
-      </c>
       <c r="N16" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="O16" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="O16" s="23" t="s">
+      <c r="P16" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="P16" s="23" t="s">
+      <c r="Q16" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="Q16" s="23" t="s">
+      <c r="R16" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="R16" s="23" t="s">
-        <v>40</v>
-      </c>
       <c r="S16" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="T16" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="T16" s="23" t="s">
+      <c r="U16" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="U16" s="23" t="s">
+      <c r="V16" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="V16" s="23" t="s">
+      <c r="W16" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="W16" s="23" t="s">
-        <v>40</v>
-      </c>
       <c r="X16" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y16" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="Y16" s="23" t="s">
+      <c r="Z16" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="Z16" s="23" t="s">
+      <c r="AA16" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="AA16" s="23" t="s">
+      <c r="AB16" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="AB16" s="23" t="s">
-        <v>40</v>
-      </c>
       <c r="AC16" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD16" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="AD16" s="23" t="s">
+      <c r="AE16" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="AE16" s="23" t="s">
+      <c r="AF16" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="AF16" s="23" t="s">
+      <c r="AG16" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="AG16" s="23" t="s">
-        <v>40</v>
-      </c>
       <c r="AH16" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI16" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="AI16" s="23" t="s">
+      <c r="AJ16" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="AJ16" s="23" t="s">
+      <c r="AK16" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="AK16" s="23" t="s">
+      <c r="AL16" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="AL16" s="23" t="s">
-        <v>40</v>
-      </c>
       <c r="AM16" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN16" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="AN16" s="24" t="s">
+      <c r="AO16" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="AO16" s="24" t="s">
+      <c r="AP16" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="AP16" s="24" t="s">
+      <c r="AQ16" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="AQ16" s="24" t="s">
-        <v>40</v>
-      </c>
       <c r="AR16" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS16" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="AS16" s="24" t="s">
+      <c r="AT16" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="AT16" s="24" t="s">
+      <c r="AU16" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="AU16" s="24" t="s">
+      <c r="AV16" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="AV16" s="24" t="s">
-        <v>40</v>
-      </c>
       <c r="AW16" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="AX16" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="AX16" s="24" t="s">
+      <c r="AY16" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="AY16" s="24" t="s">
+      <c r="AZ16" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="AZ16" s="24" t="s">
+      <c r="BA16" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="BA16" s="24" t="s">
-        <v>40</v>
-      </c>
       <c r="BB16" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="BC16" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="BC16" s="25" t="s">
+      <c r="BD16" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="BD16" s="25" t="s">
+      <c r="BE16" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="BE16" s="25" t="s">
+      <c r="BF16" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="BF16" s="25" t="s">
-        <v>40</v>
-      </c>
       <c r="BG16" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="BH16" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="BH16" s="25" t="s">
+      <c r="BI16" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="BI16" s="25" t="s">
+      <c r="BJ16" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="BJ16" s="25" t="s">
+      <c r="BK16" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="BK16" s="25" t="s">
-        <v>40</v>
-      </c>
       <c r="BL16" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="BM16" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="BM16" s="25" t="s">
+      <c r="BN16" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="BN16" s="25" t="s">
+      <c r="BO16" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="BO16" s="25" t="s">
+      <c r="BP16" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="BP16" s="25" t="s">
-        <v>40</v>
-      </c>
       <c r="BQ16" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="BR16" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="BR16" s="25" t="s">
+      <c r="BS16" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="BS16" s="25" t="s">
+      <c r="BT16" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="BT16" s="25" t="s">
+      <c r="BU16" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="BU16" s="25" t="s">
-        <v>40</v>
-      </c>
       <c r="BV16" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="BW16" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="BW16" s="25" t="s">
+      <c r="BX16" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="BX16" s="25" t="s">
+      <c r="BY16" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="BY16" s="25" t="s">
+      <c r="BZ16" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="BZ16" s="25" t="s">
-        <v>40</v>
-      </c>
       <c r="CA16" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="CB16" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="CB16" s="25" t="s">
+      <c r="CC16" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="CC16" s="25" t="s">
+      <c r="CD16" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="CD16" s="25" t="s">
+      <c r="CE16" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="CE16" s="25" t="s">
-        <v>40</v>
-      </c>
     </row>
-    <row r="17" spans="1:83" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:83" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="26">
         <v>1</v>
       </c>
-      <c r="C17" s="27"/>
+      <c r="C17" s="27" t="s">
+        <v>56</v>
+      </c>
       <c r="D17" s="28"/>
       <c r="E17" s="28"/>
       <c r="F17" s="28"/>
@@ -2495,33 +2600,39 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:83" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:83" ht="13.2" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="32"/>
       <c r="B18" s="33">
         <v>1.1000000000000001</v>
       </c>
       <c r="C18" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="35"/>
+      <c r="E18" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" s="35">
+        <v>10</v>
+      </c>
       <c r="H18" s="37">
         <v>0</v>
       </c>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="38"/>
-      <c r="N18" s="38"/>
-      <c r="O18" s="38"/>
-      <c r="P18" s="38"/>
-      <c r="Q18" s="38"/>
-      <c r="R18" s="38"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="79"/>
+      <c r="K18" s="79"/>
+      <c r="L18" s="79"/>
+      <c r="M18" s="79"/>
+      <c r="N18" s="79"/>
+      <c r="O18" s="79"/>
+      <c r="P18" s="79"/>
+      <c r="Q18" s="79"/>
+      <c r="R18" s="79"/>
       <c r="S18" s="38"/>
       <c r="T18" s="38"/>
       <c r="U18" s="38"/>
@@ -2588,18 +2699,22 @@
       <c r="CD18" s="40"/>
       <c r="CE18" s="41"/>
     </row>
-    <row r="19" spans="1:83" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:83" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A19" s="32"/>
       <c r="B19" s="33">
         <v>1.2</v>
       </c>
-      <c r="C19" s="34"/>
-      <c r="D19" s="35"/>
+      <c r="C19" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>70</v>
+      </c>
       <c r="E19" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="36" t="s">
         <v>43</v>
-      </c>
-      <c r="F19" s="36" t="s">
-        <v>44</v>
       </c>
       <c r="G19" s="35">
         <v>10</v>
@@ -2683,16 +2798,26 @@
       <c r="CD19" s="42"/>
       <c r="CE19" s="42"/>
     </row>
-    <row r="20" spans="1:83" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:83" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A20" s="32"/>
       <c r="B20" s="33">
         <v>1.3</v>
       </c>
-      <c r="C20" s="34"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="35"/>
+      <c r="C20" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="G20" s="35">
+        <v>10</v>
+      </c>
       <c r="H20" s="37">
         <v>0</v>
       </c>
@@ -2716,16 +2841,16 @@
       <c r="Z20" s="42"/>
       <c r="AA20" s="42"/>
       <c r="AB20" s="42"/>
-      <c r="AC20" s="38"/>
-      <c r="AD20" s="38"/>
-      <c r="AE20" s="38"/>
-      <c r="AF20" s="38"/>
-      <c r="AG20" s="38"/>
-      <c r="AH20" s="38"/>
-      <c r="AI20" s="38"/>
-      <c r="AJ20" s="42"/>
-      <c r="AK20" s="42"/>
-      <c r="AL20" s="42"/>
+      <c r="AC20" s="79"/>
+      <c r="AD20" s="79"/>
+      <c r="AE20" s="79"/>
+      <c r="AF20" s="79"/>
+      <c r="AG20" s="79"/>
+      <c r="AH20" s="79"/>
+      <c r="AI20" s="79"/>
+      <c r="AJ20" s="80"/>
+      <c r="AK20" s="80"/>
+      <c r="AL20" s="80"/>
       <c r="AM20" s="39"/>
       <c r="AN20" s="39"/>
       <c r="AO20" s="39"/>
@@ -2772,12 +2897,14 @@
       <c r="CD20" s="42"/>
       <c r="CE20" s="42"/>
     </row>
-    <row r="21" spans="1:83" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:83" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="26">
         <v>2</v>
       </c>
-      <c r="C21" s="27"/>
+      <c r="C21" s="27" t="s">
+        <v>57</v>
+      </c>
       <c r="D21" s="44"/>
       <c r="E21" s="45"/>
       <c r="F21" s="45"/>
@@ -2859,22 +2986,22 @@
       <c r="CD21" s="46"/>
       <c r="CE21" s="46"/>
     </row>
-    <row r="22" spans="1:83" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:83" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A22" s="32"/>
       <c r="B22" s="33">
         <v>2.1</v>
       </c>
       <c r="C22" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="35" t="s">
+      <c r="E22" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="E22" s="36" t="s">
+      <c r="F22" s="36" t="s">
         <v>47</v>
-      </c>
-      <c r="F22" s="36" t="s">
-        <v>48</v>
       </c>
       <c r="G22" s="35">
         <v>3</v>
@@ -2958,19 +3085,31 @@
       <c r="CD22" s="40"/>
       <c r="CE22" s="40"/>
     </row>
-    <row r="23" spans="1:83" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:83" ht="13.2" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A23" s="32"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="55">
+      <c r="B23" s="33">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C23" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="G23" s="35">
+        <v>2</v>
+      </c>
+      <c r="H23" s="54">
         <v>0</v>
       </c>
-      <c r="I23" s="56"/>
-      <c r="J23" s="57"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="56"/>
       <c r="K23" s="42"/>
       <c r="L23" s="42"/>
       <c r="M23" s="42"/>
@@ -3002,8 +3141,8 @@
       <c r="AM23" s="42"/>
       <c r="AN23" s="42"/>
       <c r="AO23" s="42"/>
-      <c r="AP23" s="42"/>
-      <c r="AQ23" s="42"/>
+      <c r="AP23" s="82"/>
+      <c r="AQ23" s="83"/>
       <c r="AR23" s="40"/>
       <c r="AS23" s="40"/>
       <c r="AT23" s="40"/>
@@ -3045,25 +3184,31 @@
       <c r="CD23" s="42"/>
       <c r="CE23" s="42"/>
     </row>
-    <row r="24" spans="1:83" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:83" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="32"/>
       <c r="B24" s="33">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C24" s="58"/>
-      <c r="D24" s="35"/>
+      <c r="C24" s="78" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="35" t="s">
+        <v>76</v>
+      </c>
       <c r="E24" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="F24" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="G24" s="35"/>
+      <c r="G24" s="35">
+        <v>10</v>
+      </c>
       <c r="H24" s="37">
         <v>0</v>
       </c>
-      <c r="I24" s="56"/>
-      <c r="J24" s="57"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="56"/>
       <c r="K24" s="42"/>
       <c r="L24" s="42"/>
       <c r="M24" s="42"/>
@@ -3138,13 +3283,13 @@
       <c r="CD24" s="42"/>
       <c r="CE24" s="42"/>
     </row>
-    <row r="25" spans="1:83" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:83" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="26">
         <v>3</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D25" s="44"/>
       <c r="E25" s="45"/>
@@ -3227,15 +3372,23 @@
       <c r="CD25" s="46"/>
       <c r="CE25" s="46"/>
     </row>
-    <row r="26" spans="1:83" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:83" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A26" s="32"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="35"/>
+      <c r="B26" s="33">
+        <v>3.1</v>
+      </c>
+      <c r="C26" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="35" t="s">
+        <v>70</v>
+      </c>
       <c r="E26" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="F26" s="36"/>
+        <v>51</v>
+      </c>
+      <c r="F26" s="36" t="s">
+        <v>72</v>
+      </c>
       <c r="G26" s="35">
         <v>10</v>
       </c>
@@ -3287,16 +3440,16 @@
       <c r="AY26" s="40"/>
       <c r="AZ26" s="40"/>
       <c r="BA26" s="40"/>
-      <c r="BB26" s="60"/>
-      <c r="BC26" s="60"/>
-      <c r="BD26" s="60"/>
-      <c r="BE26" s="60"/>
-      <c r="BF26" s="60"/>
-      <c r="BG26" s="60"/>
-      <c r="BH26" s="60"/>
-      <c r="BI26" s="60"/>
-      <c r="BJ26" s="60"/>
-      <c r="BK26" s="60"/>
+      <c r="BB26" s="58"/>
+      <c r="BC26" s="58"/>
+      <c r="BD26" s="58"/>
+      <c r="BE26" s="58"/>
+      <c r="BF26" s="58"/>
+      <c r="BG26" s="58"/>
+      <c r="BH26" s="58"/>
+      <c r="BI26" s="58"/>
+      <c r="BJ26" s="58"/>
+      <c r="BK26" s="58"/>
       <c r="BL26" s="40"/>
       <c r="BM26" s="40"/>
       <c r="BN26" s="40"/>
@@ -3318,25 +3471,31 @@
       <c r="CD26" s="40"/>
       <c r="CE26" s="40"/>
     </row>
-    <row r="27" spans="1:83" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:83" ht="13.2" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A27" s="32"/>
       <c r="B27" s="33">
         <v>3.2</v>
       </c>
-      <c r="C27" s="61" t="s">
+      <c r="C27" s="59" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="F27" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="D27" s="35"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="G27" s="35"/>
+      <c r="G27" s="35">
+        <v>10</v>
+      </c>
       <c r="H27" s="37">
         <v>0</v>
       </c>
-      <c r="I27" s="56"/>
-      <c r="J27" s="57"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="56"/>
       <c r="K27" s="42"/>
       <c r="L27" s="42"/>
       <c r="M27" s="42"/>
@@ -3390,16 +3549,16 @@
       <c r="BI27" s="42"/>
       <c r="BJ27" s="42"/>
       <c r="BK27" s="42"/>
-      <c r="BL27" s="42"/>
-      <c r="BM27" s="42"/>
-      <c r="BN27" s="42"/>
-      <c r="BO27" s="42"/>
-      <c r="BP27" s="42"/>
-      <c r="BQ27" s="42"/>
-      <c r="BR27" s="42"/>
-      <c r="BS27" s="42"/>
-      <c r="BT27" s="42"/>
-      <c r="BU27" s="60"/>
+      <c r="BL27" s="81"/>
+      <c r="BM27" s="81"/>
+      <c r="BN27" s="81"/>
+      <c r="BO27" s="81"/>
+      <c r="BP27" s="81"/>
+      <c r="BQ27" s="81"/>
+      <c r="BR27" s="81"/>
+      <c r="BS27" s="81"/>
+      <c r="BT27" s="81"/>
+      <c r="BU27" s="58"/>
       <c r="BV27" s="40"/>
       <c r="BW27" s="40"/>
       <c r="BX27" s="40"/>
@@ -3411,21 +3570,31 @@
       <c r="CD27" s="40"/>
       <c r="CE27" s="40"/>
     </row>
-    <row r="28" spans="1:83" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:83" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A28" s="32"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="62"/>
+      <c r="B28" s="33">
+        <v>3.3</v>
+      </c>
+      <c r="C28" s="60" t="s">
+        <v>67</v>
+      </c>
       <c r="D28" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="35"/>
+        <v>54</v>
+      </c>
+      <c r="E28" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="F28" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="G28" s="35">
+        <v>10</v>
+      </c>
       <c r="H28" s="37">
         <v>0</v>
       </c>
-      <c r="I28" s="56"/>
-      <c r="J28" s="57"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="56"/>
       <c r="K28" s="42"/>
       <c r="L28" s="42"/>
       <c r="M28" s="42"/>
@@ -3489,972 +3658,976 @@
       <c r="BS28" s="40"/>
       <c r="BT28" s="40"/>
       <c r="BU28" s="40"/>
-      <c r="BV28" s="42"/>
-      <c r="BW28" s="42"/>
-      <c r="BX28" s="42"/>
-      <c r="BY28" s="42"/>
-      <c r="BZ28" s="42"/>
-      <c r="CA28" s="42"/>
-      <c r="CB28" s="42"/>
-      <c r="CC28" s="42"/>
-      <c r="CD28" s="42"/>
-      <c r="CE28" s="42"/>
+      <c r="BV28" s="81"/>
+      <c r="BW28" s="81"/>
+      <c r="BX28" s="81"/>
+      <c r="BY28" s="81"/>
+      <c r="BZ28" s="81"/>
+      <c r="CA28" s="81"/>
+      <c r="CB28" s="81"/>
+      <c r="CC28" s="81"/>
+      <c r="CD28" s="81"/>
+      <c r="CE28" s="81"/>
     </row>
-    <row r="29" spans="1:83" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="30" spans="1:83" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="31" spans="1:83" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="32" spans="1:83" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="33" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="34" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="35" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="36" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="37" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="38" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="39" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="40" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="41" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="42" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="43" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="44" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="45" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="46" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="47" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="48" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="49" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="50" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="51" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="52" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="53" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="54" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="55" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="56" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="57" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="58" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="59" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="60" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="61" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="62" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="63" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="64" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="65" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="66" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="67" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="68" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="69" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="70" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="71" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="72" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="73" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="74" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="75" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="76" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="77" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="78" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="79" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="80" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="81" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="82" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="83" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="84" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="85" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="86" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="87" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="88" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="89" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="90" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="91" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="92" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="93" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="94" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="95" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="96" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="97" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="98" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="99" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="100" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="101" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="102" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="103" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="104" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="105" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="106" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="107" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="108" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="109" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="110" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="111" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="112" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="113" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="114" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="115" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="116" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="117" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="118" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="119" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="120" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="121" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="122" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="123" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="124" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="125" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="126" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="127" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="128" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="129" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="130" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="131" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="132" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="133" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="134" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="135" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="136" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="137" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="138" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="139" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="140" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="141" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="142" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="143" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="144" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="145" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="146" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="147" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="148" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="149" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="150" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="151" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="152" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="153" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="154" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="155" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="156" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="157" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="158" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="159" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="160" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="161" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="162" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="163" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="164" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="165" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="166" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="167" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="168" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="169" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="170" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="171" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="172" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="173" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="174" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="175" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="176" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="177" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="178" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="179" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="180" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="181" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="182" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="183" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="184" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="185" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="186" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="187" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="188" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="189" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="190" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="191" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="192" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="193" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="194" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="195" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="196" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="197" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="198" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="199" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="200" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="201" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="202" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="203" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="204" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="205" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="206" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="207" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="208" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="209" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="210" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="211" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="212" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="213" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="214" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="215" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="216" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="217" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="218" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="219" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="220" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="221" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="222" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="223" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="224" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="225" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="226" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="227" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="228" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="229" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="230" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="231" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="232" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="233" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="234" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="235" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="236" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="237" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="238" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="239" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="240" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="241" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="242" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="243" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="244" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="245" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="246" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="247" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="248" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="249" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="250" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="251" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="252" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="253" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="254" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="255" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="256" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="257" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="258" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="259" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="260" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="261" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="262" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="263" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="264" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="265" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="266" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="267" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="268" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="269" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="270" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="271" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="272" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="273" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="274" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="275" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="276" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="277" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="278" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="279" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="280" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="281" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="282" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="283" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="284" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="285" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="286" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="287" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="288" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="289" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="290" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="291" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="292" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="293" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="294" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="295" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="296" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="297" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="298" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="299" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="300" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="301" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="302" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="303" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="304" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="305" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="306" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="307" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="308" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="309" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="310" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="311" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="312" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="313" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="314" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="315" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="316" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="317" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="318" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="319" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="320" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="321" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="322" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="323" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="324" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="325" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="326" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="327" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="328" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="329" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="330" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="331" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="332" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="333" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="334" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="335" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="336" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="337" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="338" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="339" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="340" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="341" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="342" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="343" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="344" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="345" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="346" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="347" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="348" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="349" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="350" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="351" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="352" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="353" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="354" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="355" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="356" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="357" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="358" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="359" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="360" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="361" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="362" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="363" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="364" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="365" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="366" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="367" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="368" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="369" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="370" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="371" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="372" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="373" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="374" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="375" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="376" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="377" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="378" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="379" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="380" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="381" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="382" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="383" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="384" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="385" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="386" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="387" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="388" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="389" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="390" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="391" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="392" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="393" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="394" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="395" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="396" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="397" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="398" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="399" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="400" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="401" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="402" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="403" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="404" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="405" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="406" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="407" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="408" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="409" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="410" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="411" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="412" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="413" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="414" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="415" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="416" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="417" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="418" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="419" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="420" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="421" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="422" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="423" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="424" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="425" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="426" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="427" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="428" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="429" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="430" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="431" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="432" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="433" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="434" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="435" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="436" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="437" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="438" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="439" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="440" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="441" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="442" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="443" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="444" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="445" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="446" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="447" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="448" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="449" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="450" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="451" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="452" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="453" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="454" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="455" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="456" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="457" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="458" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="459" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="460" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="461" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="462" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="463" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="464" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="465" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="466" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="467" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="468" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="469" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="470" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="471" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="472" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="473" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="474" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="475" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="476" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="477" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="478" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="479" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="480" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="481" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="482" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="483" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="484" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="485" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="486" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="487" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="488" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="489" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="490" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="491" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="492" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="493" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="494" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="495" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="496" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="497" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="498" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="499" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="500" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="501" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="502" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="503" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="504" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="505" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="506" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="507" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="508" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="509" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="510" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="511" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="512" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="513" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="514" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="515" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="516" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="517" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="518" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="519" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="520" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="521" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="522" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="523" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="524" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="525" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="526" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="527" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="528" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="529" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="530" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="531" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="532" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="533" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="534" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="535" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="536" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="537" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="538" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="539" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="540" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="541" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="542" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="543" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="544" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="545" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="546" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="547" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="548" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="549" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="550" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="551" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="552" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="553" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="554" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="555" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="556" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="557" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="558" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="559" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="560" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="561" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="562" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="563" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="564" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="565" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="566" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="567" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="568" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="569" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="570" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="571" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="572" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="573" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="574" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="575" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="576" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="577" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="578" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="579" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="580" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="581" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="582" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="583" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="584" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="585" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="586" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="587" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="588" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="589" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="590" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="591" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="592" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="593" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="594" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="595" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="596" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="597" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="598" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="599" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="600" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="601" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="602" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="603" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="604" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="605" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="606" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="607" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="608" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="609" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="610" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="611" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="612" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="613" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="614" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="615" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="616" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="617" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="618" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="619" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="620" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="621" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="622" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="623" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="624" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="625" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="626" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="627" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="628" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="629" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="630" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="631" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="632" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="633" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="634" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="635" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="636" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="637" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="638" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="639" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="640" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="641" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="642" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="643" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="644" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="645" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="646" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="647" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="648" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="649" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="650" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="651" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="652" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="653" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="654" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="655" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="656" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="657" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="658" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="659" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="660" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="661" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="662" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="663" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="664" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="665" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="666" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="667" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="668" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="669" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="670" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="671" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="672" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="673" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="674" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="675" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="676" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="677" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="678" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="679" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="680" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="681" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="682" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="683" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="684" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="685" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="686" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="687" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="688" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="689" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="690" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="691" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="692" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="693" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="694" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="695" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="696" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="697" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="698" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="699" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="700" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="701" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="702" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="703" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="704" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="705" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="706" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="707" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="708" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="709" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="710" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="711" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="712" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="713" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="714" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="715" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="716" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="717" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="718" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="719" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="720" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="721" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="722" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="723" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="724" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="725" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="726" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="727" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="728" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="729" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="730" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="731" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="732" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="733" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="734" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="735" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="736" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="737" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="738" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="739" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="740" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="741" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="742" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="743" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="744" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="745" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="746" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="747" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="748" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="749" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="750" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="751" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="752" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="753" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="754" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="755" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="756" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="757" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="758" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="759" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="760" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="761" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="762" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="763" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="764" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="765" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="766" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="767" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="768" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="769" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="770" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="771" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="772" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="773" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="774" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="775" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="776" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="777" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="778" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="779" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="780" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="781" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="782" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="783" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="784" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="785" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="786" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="787" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="788" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="789" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="790" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="791" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="792" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="793" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="794" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="795" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="796" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="797" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="798" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="799" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="800" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="801" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="802" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="803" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="804" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="805" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="806" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="807" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="808" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="809" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="810" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="811" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="812" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="813" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="814" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="815" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="816" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="817" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="818" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="819" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="820" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="821" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="822" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="823" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="824" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="825" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="826" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="827" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="828" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="829" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="830" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="831" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="832" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="833" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="834" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="835" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="836" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="837" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="838" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="839" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="840" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="841" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="842" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="843" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="844" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="845" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="846" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="847" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="848" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="849" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="850" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="851" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="852" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="853" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="854" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="855" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="856" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="857" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="858" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="859" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="860" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="861" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="862" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="863" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="864" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="865" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="866" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="867" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="868" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="869" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="870" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="871" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="872" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="873" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="874" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="875" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="876" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="877" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="878" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="879" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="880" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="881" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="882" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="883" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="884" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="885" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="886" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="887" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="888" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="889" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="890" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="891" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="892" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="893" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="894" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="895" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="896" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="897" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="898" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="899" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="900" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="901" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="902" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="903" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="904" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="905" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="906" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="907" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="908" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="909" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="910" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="911" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="912" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="913" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="914" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="915" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="916" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="917" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="918" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="919" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="920" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="921" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="922" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="923" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="924" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="925" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="926" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="927" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="928" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="929" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="930" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="931" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="932" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="933" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="934" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="935" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="936" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="937" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="938" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="939" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="940" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="941" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="942" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="943" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="944" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="945" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="946" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="947" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="948" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="949" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="950" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="951" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="952" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="953" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="954" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="955" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="956" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="957" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="958" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="959" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="960" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="961" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="962" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="963" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="964" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="965" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="966" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="967" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="968" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="969" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="970" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="971" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="972" ht="12.75" x14ac:dyDescent="0.35"/>
-    <row r="973" ht="12.75" x14ac:dyDescent="0.35"/>
+    <row r="29" spans="1:83" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:83" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:83" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:83" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="13.2" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="CA14:CE14"/>
-    <mergeCell ref="I14:M14"/>
-    <mergeCell ref="N14:R14"/>
-    <mergeCell ref="X14:AB14"/>
-    <mergeCell ref="AC14:AG14"/>
-    <mergeCell ref="AH14:AL14"/>
-    <mergeCell ref="AM14:AQ14"/>
-    <mergeCell ref="AR14:AV14"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="S7:W7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="I9:M9"/>
+    <mergeCell ref="N9:W9"/>
+    <mergeCell ref="E13:E16"/>
+    <mergeCell ref="F13:F16"/>
+    <mergeCell ref="G13:G16"/>
+    <mergeCell ref="H13:H16"/>
+    <mergeCell ref="I13:AL13"/>
     <mergeCell ref="AM13:BA13"/>
     <mergeCell ref="BB13:CE13"/>
     <mergeCell ref="B10:C10"/>
@@ -4471,18 +4644,14 @@
     <mergeCell ref="BL14:BP14"/>
     <mergeCell ref="BQ14:BU14"/>
     <mergeCell ref="BV14:BZ14"/>
-    <mergeCell ref="E13:E16"/>
-    <mergeCell ref="F13:F16"/>
-    <mergeCell ref="G13:G16"/>
-    <mergeCell ref="H13:H16"/>
-    <mergeCell ref="I13:AL13"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="I7:M7"/>
-    <mergeCell ref="S7:W7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="I9:M9"/>
-    <mergeCell ref="N9:W9"/>
+    <mergeCell ref="CA14:CE14"/>
+    <mergeCell ref="I14:M14"/>
+    <mergeCell ref="N14:R14"/>
+    <mergeCell ref="X14:AB14"/>
+    <mergeCell ref="AC14:AG14"/>
+    <mergeCell ref="AH14:AL14"/>
+    <mergeCell ref="AM14:AQ14"/>
+    <mergeCell ref="AR14:AV14"/>
   </mergeCells>
   <conditionalFormatting sqref="H18:H20 H22:H28">
     <cfRule type="colorScale" priority="1">
